--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-09_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-09_end.xlsx
@@ -1160,7 +1160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] Don’t ever say things like, “There are causes worth giving your life for.” Never say that.
+    <t xml:space="preserve">[name="Amiya"] Don’t ever say things like, 'There are causes worth giving your life for.' Never say that.
 </t>
   </si>
   <si>
@@ -1292,7 +1292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] I’ll repeat again, so listen up. “My wish is to join the L.G.D., and from there, I’ll join the Special Inspection Unit.”
+    <t xml:space="preserve">[name="Ch’en"] I’ll repeat again, so listen up. 'My wish is to join the L.G.D., and from there, I’ll join the Special Inspection Unit.'
 </t>
   </si>
   <si>
@@ -1360,7 +1360,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">"As sword ere shadow's trace, cast off as cast."
+    <t xml:space="preserve">'As sword ere shadow's trace, cast off as cast.'
 </t>
   </si>
   <si>
@@ -1388,15 +1388,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="방패병"] 고맙다, 로도스의 전사여. 네가 나서준 덕분에 인명 피해를 막을 수 있었다.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="방패병"] 좀 전에 얘기 들었다, 로도스의 지휘관. 카우투스, 혼자 사령탑에 가겠다는 건가?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="아미야"] ……네, 하지만 그런 것도 아니에요.
+    <t xml:space="preserve">[name="방패병"] 고맙다, 로도스 아일랜드의 전사여. 네가 나서준 덕분에 인명 피해를 막을 수 있었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"] 좀 전에 얘기 들었다. 로도스 아일랜드의 카우투스 지휘관, 혼자 사령탑에 가겠다는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"] ……네. 하지만 꼭 그런 것도 아니에요.
 </t>
   </si>
   <si>
@@ -1520,7 +1520,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"] 그런데 방금 로즈몬티스 씨를 필라인이라고 불렸죠.
+    <t xml:space="preserve">[name="아미야"] 그런데 방금 로즈몬티스 씨를 필라인이라고 불렀죠.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-09_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-09_end.xlsx
@@ -924,19 +924,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] Part of our plan is to send medical personnel to all the Infected settlements, but it’s way too dangerous to send our normal medical operators into warzones.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"] I’m good... Thanks. I’m much better now that I’ve been bandaged. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"] The enemies have retreated. The battlefield has grown in size. I can’t use my Arts anymore. I can’t track them down.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"] You can count on the devils on the team to get that done for you. They’re very good at that.
+    <t xml:space="preserve">[name="Amiya"] Part of our plan is to send medical personnel to all the Infected settlements, but it's way too dangerous to send our normal medical operators into warzones.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] I'm good... Thanks. I'm much better now that I've been bandaged. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] The enemies have retreated. The battlefield has grown in size. I can't use my Arts anymore. I can't track them down.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] You can count on the devils on the team to get that done for you. They're very good at that.
 </t>
   </si>
   <si>
@@ -944,7 +944,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"] I also heard you saying just now, Cautus, you’re trying to make it to the control tower by yourself? 
+    <t xml:space="preserve">[name="Shieldguard"] I also heard you saying just now, Cautus, you're trying to make it to the control tower by yourself? 
 </t>
   </si>
   <si>
@@ -960,7 +960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] A warrior from Lungmen might also be there... but I am just going to assume there won’t be anyone else right now.
+    <t xml:space="preserve">[name="Amiya"] A warrior from Lungmen might also be there... but I am just going to assume there won't be anyone else right now.
 </t>
   </si>
   <si>
@@ -972,15 +972,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] I’ll bring a squad inside with me. There are bound to be other threats in the control tower.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"] Are you sure you’re bringing enough?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] I trust the people on my team. Each and every one of them can be counted on, and they know how to adjust to all kinds of situations. If we end up somewhere we can’t handle ourselves, we will ask for your help.  
+    <t xml:space="preserve">[name="Amiya"] I'll bring a squad inside with me. There are bound to be other threats in the control tower.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Are you sure you're bringing enough?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] I trust the people on my team. Each and every one of them can be counted on, and they know how to adjust to all kinds of situations. If we end up somewhere we can't handle ourselves, we will ask for your help.  
 </t>
   </si>
   <si>
@@ -988,7 +988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] No, It’s not that I’m trying to take charge of the battle. It’s just that, sir, there are other battles that only you, the guerrillas, can handle.
+    <t xml:space="preserve">[name="Amiya"] No, It's not that I'm trying to take charge of the battle. It's just that, sir, there are other battles that only you, the guerrillas, can handle.
 </t>
   </si>
   <si>
@@ -1000,19 +1000,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"] ...Amiya, you don’t want me to go with you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] It’s safer for you to stay outside the control tower.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"] You don’t want me to fight with you? We’ll take on Talulah... together...! 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] Rosmontis, Talulah’s Arts are filled with energy. You’re really good at dealing with all kinds of physical attacks that come your way, but... I’m worried about her flames...
+    <t xml:space="preserve">[name="Rosmontis"] ...Amiya, you don't want me to go with you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] It's safer for you to stay outside the control tower.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] You don't want me to fight with you? We'll take on Talulah... together...! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Rosmontis, Talulah's Arts are filled with energy. You're really good at dealing with all kinds of physical attacks that come your way, but... I'm worried about her flames...
 </t>
   </si>
   <si>
@@ -1020,7 +1020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"] Why can’t I go?
+    <t xml:space="preserve">[name="Rosmontis"] Why can't I go?
 </t>
   </si>
   <si>
@@ -1028,7 +1028,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"] If I’m not good at dealing with that... What should I do? What can I do? There were lots of other things I wasn’t good at too!  
+    <t xml:space="preserve">[name="Rosmontis"] If I'm not good at dealing with that... What should I do? What can I do? There were lots of other things I wasn't good at too!  
 </t>
   </si>
   <si>
@@ -1044,11 +1044,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] I don’t have the answers to those questions. I’m not saying you can’t hate someone you’ve never met. I don’t have that right. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] But, Rosmontis... before I go, I’ll leave you with an order.
+    <t xml:space="preserve">[name="Amiya"] I don't have the answers to those questions. I'm not saying you can't hate someone you've never met. I don't have that right. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] But, Rosmontis... before I go, I'll leave you with an order.
 </t>
   </si>
   <si>
@@ -1056,7 +1056,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] That’s right.
+    <t xml:space="preserve">[name="Amiya"] That's right.
 </t>
   </si>
   <si>
@@ -1072,7 +1072,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] He prefers calling people by symbols or any characteristics or equipment they have, and doesn’t usually call by name or race.
+    <t xml:space="preserve">[name="Amiya"] He prefers calling people by symbols or any characteristics or equipment they have, and doesn't usually call by name or race.
 </t>
   </si>
   <si>
@@ -1084,15 +1084,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"] But he calls you that too. He called you a Cautus. And what is it about me he liked? Is it how scary I look to others? I don’t want people to see me like that.   
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] ...But, you know how often we’re called monsters? People have been calling Patriot a monster for many, many years.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] It’s true that the Arts we possess are really scary.
+    <t xml:space="preserve">[name="Rosmontis"] But he calls you that too. He called you a Cautus. And what is it about me he liked? Is it how scary I look to others? I don't want people to see me like that.   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] ...But, you know how often we're called monsters? People have been calling Patriot a monster for many, many years.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] It's true that the Arts we possess are really scary.
 </t>
   </si>
   <si>
@@ -1100,11 +1100,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"] Not equals? We’re both... scary... and things that other people hate. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] No, that’s not right. Just look at all the guerrilla fighters here. Then there’s the Reunion fighters following the other leaders, and, of course, our own people. 
+    <t xml:space="preserve">[name="Rosmontis"] Not equals? We're both... scary... and things that other people hate. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] No, that's not right. Just look at all the guerrilla fighters here. Then there's the Reunion fighters following the other leaders, and, of course, our own people. 
 </t>
   </si>
   <si>
@@ -1112,19 +1112,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] We are judged by our actions. Just like how our teammates look out for you, just like how the Shieldguards defend Patriot, and just like how we trust Dr. Kal'tsit’s word without question. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] Rosmontis, here’s my order for you: Live, and make sure as many survive this as possible.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"] And, in order to do that, don’t come after me even if I don’t make it myself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"] Amiya! But... you’re my friend! I couldn’t let you... let you go in there all by yourself! 
+    <t xml:space="preserve">[name="Amiya"] We are judged by our actions. Just like how our teammates look out for you, just like how the Shieldguards defend Patriot, and just like how we trust Dr. Kal'tsit's word without question. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] Rosmontis, here's my order for you: Live, and make sure as many survive this as possible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"] And, in order to do that, don't come after me even if I don't make it myself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Amiya! But... you're my friend! I couldn't let you... let you go in there all by yourself! 
 </t>
   </si>
   <si>
@@ -1136,7 +1136,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] So that’s why, no matter what anybody says, no matter what they say happened to me, we both need to do whatever it takes to fulfill our mission.
+    <t xml:space="preserve">[name="Amiya"] So that's why, no matter what anybody says, no matter what they say happened to me, we both need to do whatever it takes to fulfill our mission.
 </t>
   </si>
   <si>
@@ -1144,7 +1144,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] And this order goes for everyone who’s here right now.
+    <t xml:space="preserve">[name="Amiya"] And this order goes for everyone who's here right now.
 </t>
   </si>
   <si>
@@ -1160,7 +1160,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] Don’t ever say things like, 'There are causes worth giving your life for.' Never say that.
+    <t xml:space="preserve">[name="Amiya"] Don't ever say things like, 'There are causes worth giving your life for.' Never say that.
 </t>
   </si>
   <si>
@@ -1172,7 +1172,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] ...There’s no such thing as necessary sacrifices.
+    <t xml:space="preserve">[name="Amiya"] ...There's no such thing as necessary sacrifices.
 </t>
   </si>
   <si>
@@ -1184,7 +1184,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rhodes Island Guard?"] ...Yeah, I’m listening, Amiya... Leader of Rhodes Island.
+    <t xml:space="preserve">[name="Rhodes Island Guard?"] ...Yeah, I'm listening, Amiya... Leader of Rhodes Island.
 </t>
   </si>
   <si>
@@ -1204,7 +1204,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"] Just leave this place to us. Feline, let’s go! Let’s give the little rabbit the battlefield she wants.  
+    <t xml:space="preserve">[name="Shieldguard"] Just leave this place to us. Feline, let's go! Let's give the little rabbit the battlefield she wants.  
 </t>
   </si>
   <si>
@@ -1232,7 +1232,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"] Everyone, we’ll meet again! Alive!
+    <t xml:space="preserve">[name="Amiya"] Everyone, we'll meet again! Alive!
 </t>
   </si>
   <si>
@@ -1240,11 +1240,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"] We’ll see you later!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"] Okay, let’s do our job here.
+    <t xml:space="preserve">[name="Shieldguard"] We'll see you later!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"] Okay, let's do our job here.
 </t>
   </si>
   <si>
@@ -1252,11 +1252,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Shieldguard"] This place is a little too cozy to be our battlefield! Come! Let’s turn these blocks into a warzone!  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Shieldguard"] Rhodes Island, let’s go!
+    <t xml:space="preserve">[name="Shieldguard"] This place is a little too cozy to be our battlefield! Come! Let's turn these blocks into a warzone!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"] Rhodes Island, let's go!
 </t>
   </si>
   <si>
@@ -1264,23 +1264,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Wei Yenwu"] Go over this for me again, Superintendent Ch’en.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Am I not being clear enough?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"] No, you’re clear as day. So perfectly clear that I thought I misheard. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"] Superintendent Ch’en, you should know this is outside your purview.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Laws are different from one country to another, but common sense applies everywhere.
+    <t xml:space="preserve">[name="Wei Yenwu"] Go over this for me again, Superintendent Ch'en.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Am I not being clear enough?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"] No, you're clear as day. So perfectly clear that I thought I misheard. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"] Superintendent Ch'en, you should know this is outside your purview.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Laws are different from one country to another, but common sense applies everywhere.
 </t>
   </si>
   <si>
@@ -1288,15 +1288,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] I graduated long ago. Now, I’m a police officer serving Lungmen. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] I’ll repeat again, so listen up. 'My wish is to join the L.G.D., and from there, I’ll join the Special Inspection Unit.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] I will protect this city, and I’ll clean this place up. There won’t be another incident like that. 
+    <t xml:space="preserve">[name="Ch'en"] I graduated long ago. Now, I'm a police officer serving Lungmen. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] I'll repeat again, so listen up. 'My wish is to join the L.G.D., and from there, I'll join the Special Inspection Unit.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] I will protect this city, and I'll clean this place up. There won't be another incident like that. 
 </t>
   </si>
   <si>
@@ -1304,7 +1304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Well, aren’t you forgetful? Or are you just playing dumb on purpose?
+    <t xml:space="preserve">[name="Ch'en"] Well, aren't you forgetful? Or are you just playing dumb on purpose?
 </t>
   </si>
   <si>
@@ -1312,15 +1312,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] My apologies, Chief Wei.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] Sir, I am referring to the incident that took place roughly ten years ago when the city was infiltrated by foreign forces. Several Lungmen citizens were kidnapped, and they are yet to be found.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ch’en"] I will continue to push the city to investigate and locate the kidnapped citizens after my admission to the department.
+    <t xml:space="preserve">[name="Ch'en"] My apologies, Chief Wei.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] Sir, I am referring to the incident that took place roughly ten years ago when the city was infiltrated by foreign forces. Several Lungmen citizens were kidnapped, and they are yet to be found.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en"] I will continue to push the city to investigate and locate the kidnapped citizens after my admission to the department.
 </t>
   </si>
   <si>
@@ -1328,11 +1328,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] Sir, I am perfectly aware of what I am talking about.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Wei Yenwu"] I won’t argue. How about this, then? As soon as you don’t think you can keep it up, just let me know. 
+    <t xml:space="preserve">[name="Ch'en"] Sir, I am perfectly aware of what I am talking about.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"] I won't argue. How about this, then? As soon as you don't think you can keep it up, just let me know. 
 </t>
   </si>
   <si>
@@ -1340,23 +1340,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch’en"] ......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I didn’t give him an answer.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For all these years, I’ve always wondered... just how much longer can I do this? How much longer do I want to do this?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And it wasn’t until now that I finally realized the answer isn’t for me to decide.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Chi Xiao has gotten pretty rusty in my hand lately. I wonder just when will I finally understand? Shadowless doesn’t mean to chase after shadows or let go. Instead, it’s to never look back.
+    <t xml:space="preserve">[name="Ch'en"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I didn't give him an answer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For all these years, I've always wondered... just how much longer can I do this? How much longer do I want to do this?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And it wasn't until now that I finally realized the answer isn't for me to decide.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Chi Xiao has gotten pretty rusty in my hand lately. I wonder just when will I finally understand? Shadowless doesn't mean to chase after shadows or let go. Instead, it's to never look back.
 </t>
   </si>
   <si>
